--- a/2024/shuffle-architecute/Teste10/content/results/metrics_1_7.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_1_7.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_24</t>
+          <t>model_1_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9600392351839275</v>
+        <v>0.962254804644307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7708183645385032</v>
+        <v>0.7719223398823202</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9507694959147168</v>
+        <v>0.9732536296916141</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9769669176877331</v>
+        <v>0.8318529870297675</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9708354312313006</v>
+        <v>0.962054790042055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.167706772685051</v>
+        <v>0.158408522605896</v>
       </c>
       <c r="H2" t="n">
-        <v>1.532538652420044</v>
+        <v>1.525156259536743</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2494838535785675</v>
+        <v>0.2714005708694458</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1426973938941956</v>
+        <v>0.147478312253952</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1960906088352203</v>
+        <v>0.2094396352767944</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_23</t>
+          <t>model_1_7_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9598287202758562</v>
+        <v>0.9625404426169515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.770235722383674</v>
+        <v>0.771773280833554</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9518865987091206</v>
+        <v>0.9731503420395178</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9773038176640271</v>
+        <v>0.828612340617869</v>
       </c>
       <c r="F3" t="n">
-        <v>0.97141162013877</v>
+        <v>0.9617024014237351</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1685902625322342</v>
+        <v>0.1572097539901733</v>
       </c>
       <c r="H3" t="n">
-        <v>1.536434888839722</v>
+        <v>1.526153206825256</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2438227534294128</v>
+        <v>0.2724486291408539</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1406101882457733</v>
+        <v>0.1503206193447113</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1922165602445602</v>
+        <v>0.211384654045105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_22</t>
+          <t>model_1_7_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9596071353449436</v>
+        <v>0.9628162501589533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7696458173710872</v>
+        <v>0.7716247881722302</v>
       </c>
       <c r="D4" t="n">
-        <v>0.95300255041988</v>
+        <v>0.9730446509103821</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9776381126099303</v>
+        <v>0.8253633076179728</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9719862099803779</v>
+        <v>0.9613471076086239</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1695201992988586</v>
+        <v>0.1560522317886353</v>
       </c>
       <c r="H4" t="n">
-        <v>1.540379524230957</v>
+        <v>1.527146100997925</v>
       </c>
       <c r="I4" t="n">
-        <v>0.238167479634285</v>
+        <v>0.2735210955142975</v>
       </c>
       <c r="J4" t="n">
-        <v>0.138539120554924</v>
+        <v>0.1531702876091003</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1883532553911209</v>
+        <v>0.2133457064628601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_21</t>
+          <t>model_1_7_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9593738270744805</v>
+        <v>0.9630823440342096</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7690483753496207</v>
+        <v>0.7714768923211921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9541163218077292</v>
+        <v>0.972936490497011</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9779688897416449</v>
+        <v>0.8221073705814146</v>
       </c>
       <c r="F5" t="n">
-        <v>0.972558324750647</v>
+        <v>0.9609889683351673</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1704993695020676</v>
+        <v>0.1549355089664459</v>
       </c>
       <c r="H5" t="n">
-        <v>1.544374585151672</v>
+        <v>1.528135180473328</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2325232475996017</v>
+        <v>0.2746186554431915</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1364898532629013</v>
+        <v>0.1560260057449341</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1845065951347351</v>
+        <v>0.2153224647045135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_20</t>
+          <t>model_1_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9591282617712943</v>
+        <v>0.9633389337651957</v>
       </c>
       <c r="C6" t="n">
-        <v>0.768443182467869</v>
+        <v>0.7713296709164341</v>
       </c>
       <c r="D6" t="n">
-        <v>0.955227303489971</v>
+        <v>0.9728258153676587</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9782953371633878</v>
+        <v>0.8188456700207003</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9731274117201643</v>
+        <v>0.9606281185908739</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1715299636125565</v>
+        <v>0.1538586467504501</v>
       </c>
       <c r="H6" t="n">
-        <v>1.548421382904053</v>
+        <v>1.529119491577148</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2268931716680527</v>
+        <v>0.2757416665554047</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1344674080610275</v>
+        <v>0.1588867604732513</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1806802898645401</v>
+        <v>0.2173141837120056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_19</t>
+          <t>model_1_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9588698051793629</v>
+        <v>0.9635863334374162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7678299900009944</v>
+        <v>0.7711830728605039</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9563343843602763</v>
+        <v>0.9727127125310022</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9786165734720622</v>
+        <v>0.8155791495893182</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9736926139488342</v>
+        <v>0.9602646232263529</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1726146340370178</v>
+        <v>0.1528203636407852</v>
       </c>
       <c r="H7" t="n">
-        <v>1.552521944046021</v>
+        <v>1.530099868774414</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2212828397750854</v>
+        <v>0.2768893837928772</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1324772387742996</v>
+        <v>0.1617517620325089</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1768800914287567</v>
+        <v>0.2193205058574677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_18</t>
+          <t>model_1_7_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9585978954661113</v>
+        <v>0.9638246133860365</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7672085352575445</v>
+        <v>0.7710372266284673</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9574368230493576</v>
+        <v>0.9725971108565303</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9789317913944316</v>
+        <v>0.8123088596304643</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9742533094883727</v>
+        <v>0.9598985231671895</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1737557798624039</v>
+        <v>0.1518203616142273</v>
       </c>
       <c r="H8" t="n">
-        <v>1.556677579879761</v>
+        <v>1.531075239181519</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2156960517168045</v>
+        <v>0.2780623733997345</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1305243670940399</v>
+        <v>0.1646200716495514</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1731102019548416</v>
+        <v>0.2213411927223206</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_17</t>
+          <t>model_1_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9583119799931097</v>
+        <v>0.9640540395225904</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7665785460797739</v>
+        <v>0.77089208503351</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9585337502214664</v>
+        <v>0.9724791320462536</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9792401666985271</v>
+        <v>0.8090354538087683</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9748087610675548</v>
+        <v>0.9595299626350535</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1749556958675385</v>
+        <v>0.1508575081825256</v>
       </c>
       <c r="H9" t="n">
-        <v>1.560890436172485</v>
+        <v>1.532045602798462</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2101371884346008</v>
+        <v>0.2792595624923706</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1286138892173767</v>
+        <v>0.1674911081790924</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1693755686283112</v>
+        <v>0.2233754843473434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_16</t>
+          <t>model_1_7_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9580113755513392</v>
+        <v>0.9642747933268637</v>
       </c>
       <c r="C10" t="n">
-        <v>0.765939751130798</v>
+        <v>0.7707476789224315</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9596241145208821</v>
+        <v>0.9723585738141752</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9795408847544985</v>
+        <v>0.8057598625005874</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9753582248659612</v>
+        <v>0.9591589470297909</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1762172728776932</v>
+        <v>0.1499310582876205</v>
       </c>
       <c r="H10" t="n">
-        <v>1.565162062644958</v>
+        <v>1.533011436462402</v>
       </c>
       <c r="I10" t="n">
-        <v>0.204611599445343</v>
+        <v>0.2804828882217407</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1267508268356323</v>
+        <v>0.1703640520572662</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1656812131404877</v>
+        <v>0.2254233062267303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_15</t>
+          <t>model_1_7_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.957695494310667</v>
+        <v>0.9644869652647907</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7652918585611075</v>
+        <v>0.770603994976003</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9607072302973104</v>
+        <v>0.9722356170612479</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9798330753257052</v>
+        <v>0.8024823199485146</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9759010349111369</v>
+        <v>0.9587854785871043</v>
       </c>
       <c r="G11" t="n">
-        <v>0.177542969584465</v>
+        <v>0.1490406095981598</v>
       </c>
       <c r="H11" t="n">
-        <v>1.569494485855103</v>
+        <v>1.533972263336182</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1991227120161057</v>
+        <v>0.2817305326461792</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1249406188726425</v>
+        <v>0.1732387244701385</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1620315760374069</v>
+        <v>0.2274846732616425</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_14</t>
+          <t>model_1_7_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9573637971607054</v>
+        <v>0.9646908449959036</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7646345497667293</v>
+        <v>0.7704610507034084</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9617821759762931</v>
+        <v>0.9721101878117397</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9801160833775908</v>
+        <v>0.7992041964635285</v>
       </c>
       <c r="F12" t="n">
-        <v>0.976436508872793</v>
+        <v>0.9584097443200573</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1789350062608719</v>
+        <v>0.1481849700212479</v>
       </c>
       <c r="H12" t="n">
-        <v>1.573889970779419</v>
+        <v>1.5349280834198</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1936752498149872</v>
+        <v>0.2830033004283905</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1231872960925102</v>
+        <v>0.1761139035224915</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1584312617778778</v>
+        <v>0.2295585572719574</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_13</t>
+          <t>model_1_7_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9570155916256485</v>
+        <v>0.9648865246215682</v>
       </c>
       <c r="C13" t="n">
-        <v>0.763967494216138</v>
+        <v>0.7703188167051351</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9628479737934494</v>
+        <v>0.9719823461824054</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9803890420229819</v>
+        <v>0.7959256482737233</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9769639245952252</v>
+        <v>0.9580317102178859</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1803963482379913</v>
+        <v>0.1473637372255325</v>
       </c>
       <c r="H13" t="n">
-        <v>1.578350424766541</v>
+        <v>1.535879135131836</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1882741451263428</v>
+        <v>0.2843005359172821</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1214962229132652</v>
+        <v>0.178989440202713</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1548851430416107</v>
+        <v>0.2316451221704483</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9566503960907962</v>
+        <v>0.9650741530098175</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7632904031357277</v>
+        <v>0.7701773160019717</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9639039027213464</v>
+        <v>0.9718519770335978</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9806513277771409</v>
+        <v>0.7926470377751849</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9774826819658441</v>
+        <v>0.9576514316274219</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1819290220737457</v>
+        <v>0.146576315164566</v>
       </c>
       <c r="H14" t="n">
-        <v>1.582878112792969</v>
+        <v>1.536825299263</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1829230487346649</v>
+        <v>0.2856234014034271</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1198712810873985</v>
+        <v>0.1818650364875793</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1513972282409668</v>
+        <v>0.2337440848350525</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_11</t>
+          <t>model_1_7_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9562675586447391</v>
+        <v>0.965253970457792</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7626029029820478</v>
+        <v>0.770036463934395</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9649489872698478</v>
+        <v>0.9717192659471158</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9809022473121303</v>
+        <v>0.7893689041860799</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9779921483739067</v>
+        <v>0.9572689433015876</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1835356950759888</v>
+        <v>0.1458216458559036</v>
       </c>
       <c r="H15" t="n">
-        <v>1.587475538253784</v>
+        <v>1.537767291069031</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1776268929243088</v>
+        <v>0.2869700491428375</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1183167546987534</v>
+        <v>0.1847402304410934</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1479717791080475</v>
+        <v>0.2358552515506744</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_10</t>
+          <t>model_1_7_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9558664812090771</v>
+        <v>0.9654260660190171</v>
       </c>
       <c r="C16" t="n">
-        <v>0.761904683161862</v>
+        <v>0.7698962686726005</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9659824354734666</v>
+        <v>0.9715841077874744</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9811410971834946</v>
+        <v>0.7860922507425461</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9784916543169726</v>
+        <v>0.9568843333410546</v>
       </c>
       <c r="G16" t="n">
-        <v>0.185218945145607</v>
+        <v>0.145099401473999</v>
       </c>
       <c r="H16" t="n">
-        <v>1.59214448928833</v>
+        <v>1.538704752922058</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1723897308111191</v>
+        <v>0.2883415222167969</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1168370023369789</v>
+        <v>0.1876141130924225</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1446133106946945</v>
+        <v>0.2379781007766724</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_9</t>
+          <t>model_1_7_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9554466365555268</v>
+        <v>0.9655906218110715</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7611953494397609</v>
+        <v>0.7697566932882737</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9670034278690307</v>
+        <v>0.9714464850703349</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9813673431254002</v>
+        <v>0.7828162301752264</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9789806323634902</v>
+        <v>0.956497584301803</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1869809329509735</v>
+        <v>0.144408792257309</v>
       </c>
       <c r="H17" t="n">
-        <v>1.596887826919556</v>
+        <v>1.539638042449951</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1672156751155853</v>
+        <v>0.2897379994392395</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1154353320598602</v>
+        <v>0.1904874593019485</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1413256227970123</v>
+        <v>0.2401127815246582</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_8</t>
+          <t>model_1_7_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9550074070441005</v>
+        <v>0.9657477582740638</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7604745793286427</v>
+        <v>0.7696177442450692</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9680111594428615</v>
+        <v>0.9713065156428933</v>
       </c>
       <c r="E18" t="n">
-        <v>0.981580372652797</v>
+        <v>0.7795418672143242</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9794585548564624</v>
+        <v>0.9561087589917958</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1888242661952972</v>
+        <v>0.143749326467514</v>
       </c>
       <c r="H18" t="n">
-        <v>1.601707696914673</v>
+        <v>1.540567278862</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1621088087558746</v>
+        <v>0.2911583185195923</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1141155436635017</v>
+        <v>0.1933593302965164</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1381122767925262</v>
+        <v>0.2422589063644409</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_7</t>
+          <t>model_1_7_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9545482091827584</v>
+        <v>0.965897629818589</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7597419488224983</v>
+        <v>0.7694792894428851</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9690046065551591</v>
+        <v>0.9711641455836326</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9817795993805228</v>
+        <v>0.7762692955195793</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9799247474505408</v>
+        <v>0.9557178660704276</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1907514333724976</v>
+        <v>0.1431203484535217</v>
       </c>
       <c r="H19" t="n">
-        <v>1.606606721878052</v>
+        <v>1.54149317741394</v>
       </c>
       <c r="I19" t="n">
-        <v>0.157074362039566</v>
+        <v>0.2926029562950134</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1128812730312347</v>
+        <v>0.1962296366691589</v>
       </c>
       <c r="K19" t="n">
-        <v>0.134977787733078</v>
+        <v>0.2444164454936981</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_6</t>
+          <t>model_1_7_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9540684627253671</v>
+        <v>0.9660404112507378</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7589970909981013</v>
+        <v>0.7693413845650448</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9699831305337122</v>
+        <v>0.9710193524520239</v>
       </c>
       <c r="E20" t="n">
-        <v>0.981964484895584</v>
+        <v>0.7729987918011638</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9803786974391028</v>
+        <v>0.9553250021593513</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1927648186683655</v>
+        <v>0.1425211280584335</v>
       </c>
       <c r="H20" t="n">
-        <v>1.611587643623352</v>
+        <v>1.542415142059326</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1521155387163162</v>
+        <v>0.2940721809864044</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1117358431220055</v>
+        <v>0.1990981251001358</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1319256126880646</v>
+        <v>0.246584877371788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_5</t>
+          <t>model_1_7_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.953567656171591</v>
+        <v>0.966176183833492</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7582395950751891</v>
+        <v>0.7692039396926141</v>
       </c>
       <c r="D21" t="n">
-        <v>0.970945873322107</v>
+        <v>0.9708723212791783</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9821346942476752</v>
+        <v>0.7697300801286981</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9808199321271546</v>
+        <v>0.9549300850252975</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1948665976524353</v>
+        <v>0.1419513076543808</v>
       </c>
       <c r="H21" t="n">
-        <v>1.616652965545654</v>
+        <v>1.543334364891052</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1472366750240326</v>
+        <v>0.2955641448497772</v>
       </c>
       <c r="J21" t="n">
-        <v>0.110681340098381</v>
+        <v>0.2019650489091873</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1289589256048203</v>
+        <v>0.2487646341323853</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_4</t>
+          <t>model_1_7_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9530451981755164</v>
+        <v>0.9663051280078756</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7574690927105114</v>
+        <v>0.7690669030485621</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9718920565773517</v>
+        <v>0.970722890116983</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9822896741934702</v>
+        <v>0.7664640964024148</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9812478948533151</v>
+        <v>0.95453323318689</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1970592737197876</v>
+        <v>0.1414101719856262</v>
       </c>
       <c r="H22" t="n">
-        <v>1.621805191040039</v>
+        <v>1.54425060749054</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1424417346715927</v>
+        <v>0.2970804870128632</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1097211912274361</v>
+        <v>0.2048295736312866</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1260814815759659</v>
+        <v>0.2509550750255585</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_3</t>
+          <t>model_1_7_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9525004836159762</v>
+        <v>0.9664273380620709</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7566851265127936</v>
+        <v>0.7689302217355984</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9728207414728901</v>
+        <v>0.9705711343178893</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9824290379354311</v>
+        <v>0.7632000972312623</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9816620835297759</v>
+        <v>0.9541344241552766</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1993453204631805</v>
+        <v>0.1408972591161728</v>
       </c>
       <c r="H23" t="n">
-        <v>1.627047657966614</v>
+        <v>1.545164585113525</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1377354562282562</v>
+        <v>0.2986203730106354</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1088577881455421</v>
+        <v>0.2076923549175262</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1232966482639313</v>
+        <v>0.253156304359436</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_2</t>
+          <t>model_1_7_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9519330181606367</v>
+        <v>0.9665429851522498</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7558872674494592</v>
+        <v>0.7687938758358535</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9737312684777827</v>
+        <v>0.9704171026636611</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9825524194745888</v>
+        <v>0.7599389494872522</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9820620660264612</v>
+        <v>0.9537337280756391</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2017268389463425</v>
+        <v>0.1404119282960892</v>
       </c>
       <c r="H24" t="n">
-        <v>1.632382988929749</v>
+        <v>1.546076536178589</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1331212222576141</v>
+        <v>0.3001833558082581</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1080934032797813</v>
+        <v>0.2105526477098465</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1206073313951492</v>
+        <v>0.2553679347038269</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_1</t>
+          <t>model_1_7_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9513421764198998</v>
+        <v>0.966652181538381</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7550750783912912</v>
+        <v>0.7686578021881914</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9746227208187543</v>
+        <v>0.9702608377408239</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9826594852420607</v>
+        <v>0.7566800814746929</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9824473459406933</v>
+        <v>0.953331168174045</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2042064666748047</v>
+        <v>0.1399536430835724</v>
       </c>
       <c r="H25" t="n">
-        <v>1.637814044952393</v>
+        <v>1.54698634147644</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1286036223173141</v>
+        <v>0.3017690181732178</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1074300929903984</v>
+        <v>0.2134109437465668</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1180168688297272</v>
+        <v>0.2575898766517639</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_0</t>
+          <t>model_1_7_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9507275243388275</v>
+        <v>0.9667550377521449</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7542481079595736</v>
+        <v>0.7685219681330129</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9754943870937106</v>
+        <v>0.9701023145160269</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9827501195681947</v>
+        <v>0.7534242527653288</v>
       </c>
       <c r="F26" t="n">
-        <v>0.982817596344005</v>
+        <v>0.9529267226602991</v>
       </c>
       <c r="G26" t="n">
-        <v>0.206786036491394</v>
+        <v>0.1395220011472702</v>
       </c>
       <c r="H26" t="n">
-        <v>1.643344044685364</v>
+        <v>1.547894597053528</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1241863146424294</v>
+        <v>0.3033775687217712</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1068685874342918</v>
+        <v>0.216266542673111</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1155274510383606</v>
+        <v>0.2598222494125366</v>
       </c>
     </row>
   </sheetData>
